--- a/results/survey_baseline_20220826.xlsx
+++ b/results/survey_baseline_20220826.xlsx
@@ -1131,13 +1131,13 @@
         <v>1.81</v>
       </c>
       <c r="AN3">
-        <v>.73</v>
+        <v>0.73</v>
       </c>
       <c r="AO3">
-        <v>.2</v>
+        <v>0.2</v>
       </c>
       <c r="AP3">
-        <v>.89</v>
+        <v>0.89</v>
       </c>
       <c r="AQ3">
         <v>6.15</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="BF3">
         <v>30</v>
@@ -1198,6 +1198,9 @@
       </c>
       <c r="BJ3">
         <v>10</v>
+      </c>
+      <c r="BK3">
+        <v>999</v>
       </c>
       <c r="BL3">
         <v>1</v>
@@ -1564,7 +1567,7 @@
         <v>49.5</v>
       </c>
       <c r="BD5">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -1671,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB6">
         <v>7</v>
@@ -1707,19 +1710,31 @@
         <v>1</v>
       </c>
       <c r="AM6">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="AN6">
         <v>5</v>
       </c>
       <c r="AO6">
-        <v>.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="AP6">
+        <v>999</v>
+      </c>
+      <c r="AQ6">
+        <v>999</v>
       </c>
       <c r="AR6">
         <v>1</v>
       </c>
       <c r="AS6">
         <v>5</v>
+      </c>
+      <c r="AT6">
+        <v>999</v>
+      </c>
+      <c r="AU6">
+        <v>999</v>
       </c>
       <c r="AV6">
         <v>10</v>
@@ -1912,6 +1927,9 @@
       <c r="AT7">
         <v>95</v>
       </c>
+      <c r="AU7">
+        <v>999</v>
+      </c>
       <c r="AV7">
         <v>1</v>
       </c>
@@ -1938,6 +1956,9 @@
       </c>
       <c r="BD7">
         <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>999</v>
       </c>
       <c r="BF7">
         <v>22.98</v>
@@ -2074,16 +2095,16 @@
         <v>82.24</v>
       </c>
       <c r="AL8">
-        <v>.18</v>
+        <v>0.18</v>
       </c>
       <c r="AM8">
-        <v>.24</v>
+        <v>0.24</v>
       </c>
       <c r="AN8">
-        <v>.76</v>
+        <v>0.76</v>
       </c>
       <c r="AO8">
-        <v>.07</v>
+        <v>0.07</v>
       </c>
       <c r="AP8">
         <v>11.83</v>
@@ -2131,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="BE8">
-        <v>.01</v>
+        <v>0.01</v>
       </c>
       <c r="BF8">
         <v>16</v>
@@ -2282,6 +2303,9 @@
       <c r="AP9">
         <v>3</v>
       </c>
+      <c r="AQ9">
+        <v>999</v>
+      </c>
       <c r="AR9">
         <v>1</v>
       </c>
@@ -2338,6 +2362,9 @@
       </c>
       <c r="BJ9">
         <v>3</v>
+      </c>
+      <c r="BK9">
+        <v>999</v>
       </c>
       <c r="BL9">
         <v>3</v>
@@ -2462,13 +2489,13 @@
         <v>1.81</v>
       </c>
       <c r="AN10">
-        <v>.73</v>
+        <v>0.73</v>
       </c>
       <c r="AO10">
-        <v>.2</v>
+        <v>0.2</v>
       </c>
       <c r="AP10">
-        <v>.89</v>
+        <v>0.89</v>
       </c>
       <c r="AQ10">
         <v>6.15</v>
@@ -2513,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="BE10">
-        <v>.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="BF10">
         <v>30</v>
@@ -2529,6 +2556,9 @@
       </c>
       <c r="BJ10">
         <v>10</v>
+      </c>
+      <c r="BK10">
+        <v>999</v>
       </c>
       <c r="BL10">
         <v>1</v>
@@ -2661,6 +2691,9 @@
       <c r="AP11">
         <v>35</v>
       </c>
+      <c r="AQ11">
+        <v>999</v>
+      </c>
       <c r="AR11">
         <v>1</v>
       </c>
@@ -2670,6 +2703,9 @@
       <c r="AT11">
         <v>40</v>
       </c>
+      <c r="AU11">
+        <v>999</v>
+      </c>
       <c r="AV11">
         <v>2</v>
       </c>
@@ -2693,6 +2729,12 @@
       </c>
       <c r="BC11">
         <v>50</v>
+      </c>
+      <c r="BD11">
+        <v>999</v>
+      </c>
+      <c r="BE11">
+        <v>999</v>
       </c>
       <c r="BF11">
         <v>10</v>
@@ -2783,6 +2825,9 @@
       <c r="V12">
         <v>7</v>
       </c>
+      <c r="W12">
+        <v>999</v>
+      </c>
       <c r="X12">
         <v>0</v>
       </c>
@@ -2791,6 +2836,9 @@
       </c>
       <c r="Z12">
         <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>999</v>
       </c>
       <c r="AB12">
         <v>7</v>
@@ -2802,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2825,11 +2873,20 @@
       <c r="AL12">
         <v>1</v>
       </c>
+      <c r="AM12">
+        <v>999</v>
+      </c>
       <c r="AN12">
         <v>1</v>
       </c>
+      <c r="AO12">
+        <v>999</v>
+      </c>
       <c r="AP12">
         <v>5</v>
+      </c>
+      <c r="AQ12">
+        <v>999</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -2840,6 +2897,9 @@
       <c r="AT12">
         <v>65</v>
       </c>
+      <c r="AU12">
+        <v>999</v>
+      </c>
       <c r="AV12">
         <v>5</v>
       </c>
@@ -2863,6 +2923,12 @@
       </c>
       <c r="BC12">
         <v>60</v>
+      </c>
+      <c r="BD12">
+        <v>999</v>
+      </c>
+      <c r="BE12">
+        <v>999</v>
       </c>
       <c r="BF12">
         <v>60</v>
@@ -2956,12 +3022,33 @@
       <c r="W13">
         <v>4</v>
       </c>
+      <c r="X13">
+        <v>999</v>
+      </c>
+      <c r="Y13">
+        <v>999</v>
+      </c>
+      <c r="Z13">
+        <v>999</v>
+      </c>
+      <c r="AA13">
+        <v>999</v>
+      </c>
       <c r="AB13">
         <v>4</v>
       </c>
       <c r="AC13">
         <v>3</v>
       </c>
+      <c r="AD13">
+        <v>999</v>
+      </c>
+      <c r="AE13">
+        <v>999</v>
+      </c>
+      <c r="AF13">
+        <v>999</v>
+      </c>
       <c r="AG13">
         <v>1</v>
       </c>
@@ -2980,8 +3067,20 @@
       <c r="AL13">
         <v>1</v>
       </c>
+      <c r="AM13">
+        <v>999</v>
+      </c>
+      <c r="AN13">
+        <v>999</v>
+      </c>
+      <c r="AO13">
+        <v>999</v>
+      </c>
       <c r="AP13">
         <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>999</v>
       </c>
       <c r="AR13">
         <v>1</v>
@@ -2992,6 +3091,24 @@
       <c r="AT13">
         <v>97</v>
       </c>
+      <c r="AU13">
+        <v>999</v>
+      </c>
+      <c r="AV13">
+        <v>999</v>
+      </c>
+      <c r="AW13">
+        <v>999</v>
+      </c>
+      <c r="AX13">
+        <v>999</v>
+      </c>
+      <c r="AY13">
+        <v>999</v>
+      </c>
+      <c r="AZ13">
+        <v>999</v>
+      </c>
       <c r="BA13">
         <v>1</v>
       </c>
@@ -3000,6 +3117,12 @@
       </c>
       <c r="BC13">
         <v>50</v>
+      </c>
+      <c r="BD13">
+        <v>999</v>
+      </c>
+      <c r="BE13">
+        <v>999</v>
       </c>
       <c r="BF13">
         <v>25</v>
@@ -3117,6 +3240,9 @@
       <c r="AE14">
         <v>0</v>
       </c>
+      <c r="AF14">
+        <v>999</v>
+      </c>
       <c r="AG14">
         <v>2</v>
       </c>
@@ -3130,37 +3256,67 @@
         <v>1</v>
       </c>
       <c r="AK14">
-        <v>.776</v>
+        <v>0.776</v>
       </c>
       <c r="AL14">
-        <v>.02</v>
+        <v>0.02</v>
       </c>
       <c r="AM14">
-        <v>.009</v>
+        <v>0.009</v>
       </c>
       <c r="AN14">
-        <v>.005</v>
+        <v>0.005</v>
+      </c>
+      <c r="AO14">
+        <v>999</v>
       </c>
       <c r="AP14">
-        <v>.125</v>
+        <v>0.125</v>
       </c>
       <c r="AQ14">
-        <v>.066</v>
+        <v>0.066</v>
       </c>
       <c r="AR14">
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>.271</v>
+        <v>0.271</v>
       </c>
       <c r="AT14">
-        <v>.651</v>
+        <v>0.651</v>
       </c>
       <c r="AU14">
-        <v>.078</v>
+        <v>0.078</v>
+      </c>
+      <c r="AV14">
+        <v>999</v>
+      </c>
+      <c r="AW14">
+        <v>999</v>
+      </c>
+      <c r="AX14">
+        <v>999</v>
+      </c>
+      <c r="AY14">
+        <v>999</v>
+      </c>
+      <c r="AZ14">
+        <v>999</v>
       </c>
       <c r="BA14">
         <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>999</v>
+      </c>
+      <c r="BC14">
+        <v>999</v>
+      </c>
+      <c r="BD14">
+        <v>999</v>
+      </c>
+      <c r="BE14">
+        <v>999</v>
       </c>
       <c r="BF14">
         <v>21</v>
@@ -3179,6 +3335,9 @@
       </c>
       <c r="BK14">
         <v>1</v>
+      </c>
+      <c r="BL14">
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
@@ -3296,9 +3455,21 @@
       <c r="AL15">
         <v>5</v>
       </c>
+      <c r="AM15">
+        <v>999</v>
+      </c>
+      <c r="AN15">
+        <v>999</v>
+      </c>
+      <c r="AO15">
+        <v>999</v>
+      </c>
       <c r="AP15">
         <v>15</v>
       </c>
+      <c r="AQ15">
+        <v>999</v>
+      </c>
       <c r="AR15">
         <v>1</v>
       </c>
@@ -3308,6 +3479,9 @@
       <c r="AT15">
         <v>90</v>
       </c>
+      <c r="AU15">
+        <v>999</v>
+      </c>
       <c r="AV15">
         <v>5</v>
       </c>
@@ -3331,6 +3505,12 @@
       </c>
       <c r="BC15">
         <v>50</v>
+      </c>
+      <c r="BD15">
+        <v>999</v>
+      </c>
+      <c r="BE15">
+        <v>999</v>
       </c>
       <c r="BF15">
         <v>10</v>
@@ -3424,6 +3604,12 @@
       <c r="W16">
         <v>1.75</v>
       </c>
+      <c r="X16">
+        <v>999</v>
+      </c>
+      <c r="Y16">
+        <v>999</v>
+      </c>
       <c r="Z16">
         <v>1</v>
       </c>
@@ -3435,6 +3621,12 @@
       </c>
       <c r="AC16">
         <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>999</v>
+      </c>
+      <c r="AE16">
+        <v>999</v>
       </c>
       <c r="AF16">
         <v>2</v>
@@ -3497,7 +3689,7 @@
         <v>11</v>
       </c>
       <c r="AZ16">
-        <v>.4</v>
+        <v>0.4</v>
       </c>
       <c r="BA16">
         <v>1</v>
@@ -3515,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="BF16">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="BG16">
         <v>84</v>
@@ -3524,13 +3716,13 @@
         <v>0</v>
       </c>
       <c r="BI16">
-        <v>.6</v>
+        <v>0.6</v>
       </c>
       <c r="BJ16">
         <v>14.7</v>
       </c>
       <c r="BK16">
-        <v>.2</v>
+        <v>0.2</v>
       </c>
       <c r="BL16">
         <v>1</v>
@@ -3690,6 +3882,9 @@
       <c r="AY17">
         <v>32</v>
       </c>
+      <c r="AZ17">
+        <v>999</v>
+      </c>
       <c r="BA17">
         <v>1</v>
       </c>
@@ -3821,6 +4016,9 @@
       <c r="AE18">
         <v>0</v>
       </c>
+      <c r="AF18">
+        <v>999</v>
+      </c>
       <c r="AG18">
         <v>3</v>
       </c>
@@ -3910,6 +4108,9 @@
       </c>
       <c r="BJ18">
         <v>8</v>
+      </c>
+      <c r="BK18">
+        <v>999</v>
       </c>
       <c r="BL18">
         <v>3</v>
@@ -4039,6 +4240,12 @@
       <c r="AO19">
         <v>0</v>
       </c>
+      <c r="AP19">
+        <v>999</v>
+      </c>
+      <c r="AQ19">
+        <v>999</v>
+      </c>
       <c r="AR19">
         <v>1</v>
       </c>
@@ -4188,6 +4395,15 @@
       <c r="AB20">
         <v>3</v>
       </c>
+      <c r="AC20">
+        <v>999</v>
+      </c>
+      <c r="AD20">
+        <v>999</v>
+      </c>
+      <c r="AE20">
+        <v>999</v>
+      </c>
       <c r="AF20">
         <v>1</v>
       </c>
@@ -4212,6 +4428,9 @@
       <c r="AM20">
         <v>0</v>
       </c>
+      <c r="AN20">
+        <v>999</v>
+      </c>
       <c r="AO20">
         <v>0</v>
       </c>
@@ -4224,9 +4443,15 @@
       <c r="AR20">
         <v>1</v>
       </c>
+      <c r="AS20">
+        <v>999</v>
+      </c>
       <c r="AT20">
         <v>100</v>
       </c>
+      <c r="AU20">
+        <v>999</v>
+      </c>
       <c r="AV20">
         <v>5</v>
       </c>
@@ -4250,6 +4475,12 @@
       </c>
       <c r="BC20">
         <v>50</v>
+      </c>
+      <c r="BD20">
+        <v>999</v>
+      </c>
+      <c r="BE20">
+        <v>999</v>
       </c>
       <c r="BF20">
         <v>30</v>
@@ -4391,14 +4622,29 @@
       <c r="AM21">
         <v>5</v>
       </c>
+      <c r="AN21">
+        <v>999</v>
+      </c>
       <c r="AO21">
         <v>5</v>
       </c>
       <c r="AP21">
         <v>75</v>
       </c>
+      <c r="AQ21">
+        <v>999</v>
+      </c>
       <c r="AR21">
         <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>999</v>
+      </c>
+      <c r="AT21">
+        <v>999</v>
+      </c>
+      <c r="AU21">
+        <v>999</v>
       </c>
       <c r="AV21">
         <v>10</v>
@@ -4573,9 +4819,15 @@
       <c r="AN22">
         <v>10</v>
       </c>
+      <c r="AO22">
+        <v>999</v>
+      </c>
       <c r="AP22">
         <v>9</v>
       </c>
+      <c r="AQ22">
+        <v>999</v>
+      </c>
       <c r="AR22">
         <v>1</v>
       </c>
@@ -4585,6 +4837,9 @@
       <c r="AT22">
         <v>90</v>
       </c>
+      <c r="AU22">
+        <v>999</v>
+      </c>
       <c r="AV22">
         <v>10</v>
       </c>
@@ -4610,7 +4865,10 @@
         <v>60</v>
       </c>
       <c r="BD22">
-        <v>.3</v>
+        <v>0.3</v>
+      </c>
+      <c r="BE22">
+        <v>999</v>
       </c>
       <c r="BF22">
         <v>17.3</v>
@@ -4758,6 +5016,12 @@
       <c r="AO23">
         <v>5</v>
       </c>
+      <c r="AP23">
+        <v>999</v>
+      </c>
+      <c r="AQ23">
+        <v>999</v>
+      </c>
       <c r="AR23">
         <v>1</v>
       </c>
@@ -4767,6 +5031,9 @@
       <c r="AT23">
         <v>10</v>
       </c>
+      <c r="AU23">
+        <v>999</v>
+      </c>
       <c r="AV23">
         <v>10</v>
       </c>
@@ -4790,6 +5057,12 @@
       </c>
       <c r="BC23">
         <v>50</v>
+      </c>
+      <c r="BD23">
+        <v>999</v>
+      </c>
+      <c r="BE23">
+        <v>999</v>
       </c>
       <c r="BF23">
         <v>25</v>
@@ -4907,6 +5180,9 @@
       <c r="AE24">
         <v>0</v>
       </c>
+      <c r="AF24">
+        <v>999</v>
+      </c>
       <c r="AG24">
         <v>1</v>
       </c>
@@ -4937,6 +5213,9 @@
       <c r="AP24">
         <v>2</v>
       </c>
+      <c r="AQ24">
+        <v>999</v>
+      </c>
       <c r="AR24">
         <v>1</v>
       </c>
@@ -4946,6 +5225,9 @@
       <c r="AT24">
         <v>40</v>
       </c>
+      <c r="AU24">
+        <v>999</v>
+      </c>
       <c r="AV24">
         <v>15</v>
       </c>
@@ -4972,6 +5254,9 @@
       </c>
       <c r="BD24">
         <v>1</v>
+      </c>
+      <c r="BE24">
+        <v>999</v>
       </c>
       <c r="BF24">
         <v>30</v>
@@ -5104,12 +5389,36 @@
       <c r="AJ25">
         <v>0</v>
       </c>
+      <c r="AK25">
+        <v>999</v>
+      </c>
+      <c r="AL25">
+        <v>999</v>
+      </c>
+      <c r="AM25">
+        <v>999</v>
+      </c>
+      <c r="AN25">
+        <v>999</v>
+      </c>
+      <c r="AO25">
+        <v>999</v>
+      </c>
+      <c r="AP25">
+        <v>999</v>
+      </c>
       <c r="AQ25">
         <v>100</v>
       </c>
       <c r="AR25">
         <v>0</v>
       </c>
+      <c r="AS25">
+        <v>999</v>
+      </c>
+      <c r="AT25">
+        <v>999</v>
+      </c>
       <c r="AU25">
         <v>100</v>
       </c>
@@ -5130,6 +5439,15 @@
       </c>
       <c r="BA25">
         <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>999</v>
+      </c>
+      <c r="BC25">
+        <v>999</v>
+      </c>
+      <c r="BD25">
+        <v>999</v>
       </c>
       <c r="BE25">
         <v>100</v>
@@ -5236,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>.3</v>
+        <v>0.3</v>
       </c>
       <c r="AB26">
         <v>3</v>
@@ -5244,6 +5562,12 @@
       <c r="AC26">
         <v>2</v>
       </c>
+      <c r="AD26">
+        <v>999</v>
+      </c>
+      <c r="AE26">
+        <v>999</v>
+      </c>
       <c r="AF26">
         <v>1</v>
       </c>
@@ -5315,6 +5639,12 @@
       </c>
       <c r="BC26">
         <v>65</v>
+      </c>
+      <c r="BD26">
+        <v>999</v>
+      </c>
+      <c r="BE26">
+        <v>999</v>
       </c>
       <c r="BF26">
         <v>27.01</v>
@@ -5462,6 +5792,9 @@
       <c r="AO27">
         <v>12</v>
       </c>
+      <c r="AP27">
+        <v>999</v>
+      </c>
       <c r="AQ27">
         <v>6</v>
       </c>
@@ -5716,6 +6049,9 @@
       <c r="BJ28">
         <v>1</v>
       </c>
+      <c r="BK28">
+        <v>999</v>
+      </c>
       <c r="BL28">
         <v>1</v>
       </c>
@@ -5829,12 +6165,36 @@
       <c r="AJ29">
         <v>0</v>
       </c>
+      <c r="AK29">
+        <v>999</v>
+      </c>
+      <c r="AL29">
+        <v>999</v>
+      </c>
+      <c r="AM29">
+        <v>999</v>
+      </c>
+      <c r="AN29">
+        <v>999</v>
+      </c>
+      <c r="AO29">
+        <v>999</v>
+      </c>
+      <c r="AP29">
+        <v>999</v>
+      </c>
       <c r="AQ29">
         <v>100</v>
       </c>
       <c r="AR29">
         <v>0</v>
       </c>
+      <c r="AS29">
+        <v>999</v>
+      </c>
+      <c r="AT29">
+        <v>999</v>
+      </c>
       <c r="AU29">
         <v>100</v>
       </c>
@@ -5855,6 +6215,15 @@
       </c>
       <c r="BA29">
         <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>999</v>
+      </c>
+      <c r="BC29">
+        <v>999</v>
+      </c>
+      <c r="BD29">
+        <v>999</v>
       </c>
       <c r="BE29">
         <v>100</v>
@@ -6002,8 +6371,14 @@
       <c r="AN30">
         <v>5</v>
       </c>
+      <c r="AO30">
+        <v>999</v>
+      </c>
       <c r="AP30">
         <v>5</v>
+      </c>
+      <c r="AQ30">
+        <v>999</v>
       </c>
       <c r="AR30">
         <v>1</v>
@@ -6014,6 +6389,9 @@
       <c r="AT30">
         <v>45</v>
       </c>
+      <c r="AU30">
+        <v>999</v>
+      </c>
       <c r="AV30">
         <v>5</v>
       </c>
@@ -6037,6 +6415,12 @@
       </c>
       <c r="BC30">
         <v>54</v>
+      </c>
+      <c r="BD30">
+        <v>999</v>
+      </c>
+      <c r="BE30">
+        <v>999</v>
       </c>
       <c r="BF30">
         <v>10</v>
@@ -6154,6 +6538,9 @@
       <c r="AE31">
         <v>0</v>
       </c>
+      <c r="AF31">
+        <v>999</v>
+      </c>
       <c r="AG31">
         <v>2</v>
       </c>
@@ -6173,10 +6560,13 @@
         <v>2</v>
       </c>
       <c r="AM31">
-        <v>.9</v>
+        <v>0.9</v>
       </c>
       <c r="AN31">
-        <v>.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="AO31">
+        <v>999</v>
       </c>
       <c r="AP31">
         <v>12.5</v>
@@ -6196,8 +6586,35 @@
       <c r="AU31">
         <v>7.8</v>
       </c>
+      <c r="AV31">
+        <v>999</v>
+      </c>
+      <c r="AW31">
+        <v>999</v>
+      </c>
+      <c r="AX31">
+        <v>999</v>
+      </c>
+      <c r="AY31">
+        <v>999</v>
+      </c>
+      <c r="AZ31">
+        <v>999</v>
+      </c>
       <c r="BA31">
         <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>999</v>
+      </c>
+      <c r="BC31">
+        <v>999</v>
+      </c>
+      <c r="BD31">
+        <v>999</v>
+      </c>
+      <c r="BE31">
+        <v>999</v>
       </c>
       <c r="BF31">
         <v>20.72</v>
@@ -6215,7 +6632,10 @@
         <v>26.8</v>
       </c>
       <c r="BK31">
-        <v>.38</v>
+        <v>0.38</v>
+      </c>
+      <c r="BL31">
+        <v>999</v>
       </c>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
@@ -6330,8 +6750,23 @@
       <c r="AK32">
         <v>75</v>
       </c>
+      <c r="AL32">
+        <v>999</v>
+      </c>
+      <c r="AM32">
+        <v>999</v>
+      </c>
+      <c r="AN32">
+        <v>999</v>
+      </c>
+      <c r="AO32">
+        <v>999</v>
+      </c>
       <c r="AP32">
         <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>999</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -6339,6 +6774,12 @@
       <c r="AS32">
         <v>25</v>
       </c>
+      <c r="AT32">
+        <v>999</v>
+      </c>
+      <c r="AU32">
+        <v>999</v>
+      </c>
       <c r="AV32">
         <v>32</v>
       </c>
@@ -6362,6 +6803,12 @@
       </c>
       <c r="BC32">
         <v>55</v>
+      </c>
+      <c r="BD32">
+        <v>999</v>
+      </c>
+      <c r="BE32">
+        <v>999</v>
       </c>
       <c r="BF32">
         <v>1</v>
@@ -6452,12 +6899,36 @@
       <c r="V33">
         <v>6</v>
       </c>
+      <c r="W33">
+        <v>999</v>
+      </c>
+      <c r="X33">
+        <v>999</v>
+      </c>
+      <c r="Y33">
+        <v>999</v>
+      </c>
+      <c r="Z33">
+        <v>999</v>
+      </c>
+      <c r="AA33">
+        <v>999</v>
+      </c>
       <c r="AB33">
         <v>4</v>
       </c>
       <c r="AC33">
         <v>3</v>
       </c>
+      <c r="AD33">
+        <v>999</v>
+      </c>
+      <c r="AE33">
+        <v>999</v>
+      </c>
+      <c r="AF33">
+        <v>999</v>
+      </c>
       <c r="AG33">
         <v>1</v>
       </c>
@@ -6476,12 +6947,21 @@
       <c r="AL33">
         <v>20</v>
       </c>
+      <c r="AM33">
+        <v>999</v>
+      </c>
       <c r="AN33">
         <v>20</v>
       </c>
       <c r="AO33">
         <v>10</v>
       </c>
+      <c r="AP33">
+        <v>999</v>
+      </c>
+      <c r="AQ33">
+        <v>999</v>
+      </c>
       <c r="AR33">
         <v>1</v>
       </c>
@@ -6517,6 +6997,12 @@
       </c>
       <c r="BC33">
         <v>50</v>
+      </c>
+      <c r="BD33">
+        <v>999</v>
+      </c>
+      <c r="BE33">
+        <v>999</v>
       </c>
       <c r="BF33">
         <v>15</v>
@@ -6661,11 +7147,23 @@
       <c r="AN34">
         <v>3</v>
       </c>
+      <c r="AO34">
+        <v>999</v>
+      </c>
+      <c r="AP34">
+        <v>999</v>
+      </c>
       <c r="AQ34">
         <v>1</v>
       </c>
       <c r="AR34">
         <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>999</v>
+      </c>
+      <c r="AT34">
+        <v>999</v>
       </c>
       <c r="AU34">
         <v>100</v>
@@ -6693,6 +7191,12 @@
       </c>
       <c r="BC34">
         <v>50</v>
+      </c>
+      <c r="BD34">
+        <v>999</v>
+      </c>
+      <c r="BE34">
+        <v>999</v>
       </c>
       <c r="BF34">
         <v>15</v>
@@ -6783,10 +7287,40 @@
       <c r="V35">
         <v>1</v>
       </c>
+      <c r="W35">
+        <v>999</v>
+      </c>
+      <c r="X35">
+        <v>999</v>
+      </c>
+      <c r="Y35">
+        <v>999</v>
+      </c>
+      <c r="Z35">
+        <v>999</v>
+      </c>
+      <c r="AA35">
+        <v>999</v>
+      </c>
+      <c r="AB35">
+        <v>999</v>
+      </c>
       <c r="AC35">
         <v>1</v>
       </c>
+      <c r="AD35">
+        <v>999</v>
+      </c>
+      <c r="AE35">
+        <v>999</v>
+      </c>
+      <c r="AF35">
+        <v>999</v>
+      </c>
       <c r="AG35">
+        <v>999</v>
+      </c>
+      <c r="AH35">
         <v>999</v>
       </c>
       <c r="AI35">
@@ -6801,9 +7335,15 @@
       <c r="AL35">
         <v>4</v>
       </c>
+      <c r="AM35">
+        <v>999</v>
+      </c>
       <c r="AN35">
         <v>5</v>
       </c>
+      <c r="AO35">
+        <v>999</v>
+      </c>
       <c r="AP35">
         <v>5</v>
       </c>
@@ -6815,6 +7355,15 @@
       </c>
       <c r="AS35">
         <v>5</v>
+      </c>
+      <c r="AT35">
+        <v>999</v>
+      </c>
+      <c r="AU35">
+        <v>999</v>
+      </c>
+      <c r="AV35">
+        <v>999</v>
       </c>
       <c r="AW35">
         <v>2</v>
@@ -6836,6 +7385,12 @@
       </c>
       <c r="BC35">
         <v>60</v>
+      </c>
+      <c r="BD35">
+        <v>999</v>
+      </c>
+      <c r="BE35">
+        <v>999</v>
       </c>
       <c r="BF35">
         <v>20</v>
@@ -6939,13 +7494,22 @@
         <v>1</v>
       </c>
       <c r="AA36">
-        <v>.3</v>
+        <v>0.3</v>
       </c>
       <c r="AB36">
         <v>3</v>
       </c>
       <c r="AC36">
         <v>3</v>
+      </c>
+      <c r="AD36">
+        <v>999</v>
+      </c>
+      <c r="AE36">
+        <v>999</v>
+      </c>
+      <c r="AF36">
+        <v>999</v>
       </c>
       <c r="AG36">
         <v>3</v>
@@ -7015,6 +7579,12 @@
       </c>
       <c r="BC36">
         <v>46</v>
+      </c>
+      <c r="BD36">
+        <v>999</v>
+      </c>
+      <c r="BE36">
+        <v>999</v>
       </c>
       <c r="BF36">
         <v>12.36</v>
@@ -7105,6 +7675,9 @@
       <c r="V37">
         <v>4</v>
       </c>
+      <c r="W37">
+        <v>999</v>
+      </c>
       <c r="X37">
         <v>0</v>
       </c>
@@ -7150,6 +7723,15 @@
       <c r="AL37">
         <v>5</v>
       </c>
+      <c r="AM37">
+        <v>999</v>
+      </c>
+      <c r="AN37">
+        <v>999</v>
+      </c>
+      <c r="AO37">
+        <v>999</v>
+      </c>
       <c r="AP37">
         <v>25</v>
       </c>
@@ -7212,6 +7794,9 @@
       </c>
       <c r="BJ37">
         <v>1</v>
+      </c>
+      <c r="BK37">
+        <v>999</v>
       </c>
       <c r="BL37">
         <v>3</v>
@@ -7356,6 +7941,9 @@
       <c r="AT38">
         <v>10</v>
       </c>
+      <c r="AU38">
+        <v>999</v>
+      </c>
       <c r="AV38">
         <v>0</v>
       </c>
@@ -7488,7 +8076,7 @@
         <v>1</v>
       </c>
       <c r="AA39">
-        <v>.4</v>
+        <v>0.4</v>
       </c>
       <c r="AB39">
         <v>1</v>
@@ -7682,7 +8270,7 @@
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>.6</v>
+        <v>0.6</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -7923,6 +8511,9 @@
       <c r="AP41">
         <v>30</v>
       </c>
+      <c r="AQ41">
+        <v>999</v>
+      </c>
       <c r="AR41">
         <v>1</v>
       </c>
@@ -7932,6 +8523,9 @@
       <c r="AT41">
         <v>60</v>
       </c>
+      <c r="AU41">
+        <v>999</v>
+      </c>
       <c r="AV41">
         <v>5</v>
       </c>
@@ -7955,6 +8549,12 @@
       </c>
       <c r="BC41">
         <v>50</v>
+      </c>
+      <c r="BD41">
+        <v>999</v>
+      </c>
+      <c r="BE41">
+        <v>999</v>
       </c>
       <c r="BF41">
         <v>10</v>
@@ -8093,12 +8693,21 @@
       <c r="AL42">
         <v>10</v>
       </c>
+      <c r="AM42">
+        <v>999</v>
+      </c>
       <c r="AN42">
         <v>2</v>
       </c>
+      <c r="AO42">
+        <v>999</v>
+      </c>
       <c r="AP42">
         <v>28</v>
       </c>
+      <c r="AQ42">
+        <v>999</v>
+      </c>
       <c r="AR42">
         <v>1</v>
       </c>
@@ -8108,6 +8717,9 @@
       <c r="AT42">
         <v>60</v>
       </c>
+      <c r="AU42">
+        <v>999</v>
+      </c>
       <c r="AV42">
         <v>2</v>
       </c>
@@ -8131,6 +8743,12 @@
       </c>
       <c r="BC42">
         <v>50</v>
+      </c>
+      <c r="BD42">
+        <v>999</v>
+      </c>
+      <c r="BE42">
+        <v>999</v>
       </c>
       <c r="BF42">
         <v>5</v>
@@ -8269,12 +8887,21 @@
       <c r="AL43">
         <v>5</v>
       </c>
+      <c r="AM43">
+        <v>999</v>
+      </c>
       <c r="AN43">
         <v>5</v>
+      </c>
+      <c r="AO43">
+        <v>999</v>
       </c>
       <c r="AP43">
         <v>20</v>
       </c>
+      <c r="AQ43">
+        <v>999</v>
+      </c>
       <c r="AR43">
         <v>1</v>
       </c>
@@ -8284,6 +8911,9 @@
       <c r="AT43">
         <v>50</v>
       </c>
+      <c r="AU43">
+        <v>999</v>
+      </c>
       <c r="AV43">
         <v>20</v>
       </c>
@@ -8308,6 +8938,12 @@
       <c r="BC43">
         <v>50</v>
       </c>
+      <c r="BD43">
+        <v>999</v>
+      </c>
+      <c r="BE43">
+        <v>999</v>
+      </c>
       <c r="BF43">
         <v>15</v>
       </c>
@@ -8322,6 +8958,9 @@
       </c>
       <c r="BJ43">
         <v>5</v>
+      </c>
+      <c r="BK43">
+        <v>999</v>
       </c>
       <c r="BL43">
         <v>3</v>
